--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\charu\eclipse-workspace\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A70C73-06C8-4026-9286-524667588214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{44A70C73-06C8-4026-9286-524667588214}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="449" windowHeight="12576" windowWidth="23256" xWindow="-108" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
   <si>
     <t>Other</t>
   </si>
@@ -85,12 +85,16 @@
   </si>
   <si>
     <t>prodjtDq</t>
+  </si>
+  <si>
+    <t>produGTS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -100,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -127,8 +131,18 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -184,24 +198,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="1" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -218,10 +240,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -385,21 +407,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -416,7 +438,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -468,15 +490,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -484,20 +506,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.44140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="33.44140625" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="9.109375" style="1" collapsed="1"/>
-    <col min="9" max="9" width="12.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.77734375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="9.109375" style="1" collapsed="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.21875" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.33203125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.109375" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="11.33203125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.40234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="33.44140625" collapsed="true"/>
+    <col min="6" max="8" style="1" width="9.109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="12.33203125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="14.109375" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="11.77734375" collapsed="true"/>
+    <col min="13" max="13" style="1" width="9.109375" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="12.21875" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="19.33203125" collapsed="true"/>
+    <col min="17" max="16384" style="1" width="9.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -710,10 +732,12 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="6"/>
+      <c r="B16" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>Other</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>produGTS</t>
+  </si>
+  <si>
+    <t>prodbagY</t>
+  </si>
+  <si>
+    <t>prodZlQB</t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,8 +147,28 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -205,11 +231,25 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -217,7 +257,9 @@
     <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="6" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -648,8 +690,8 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>19</v>
+      <c r="B5" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="1">
         <v>400</v>
@@ -732,8 +774,8 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="7" t="s">
-        <v>20</v>
+      <c r="B16" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Other</t>
   </si>
@@ -94,6 +94,15 @@
   </si>
   <si>
     <t>prodZlQB</t>
+  </si>
+  <si>
+    <t>prodvgbt</t>
+  </si>
+  <si>
+    <t>prodnXWZ</t>
+  </si>
+  <si>
+    <t>prodrQpn</t>
   </si>
 </sst>
 </file>
@@ -110,7 +119,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +176,38 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="11">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -245,11 +284,32 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -259,7 +319,10 @@
     <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="6" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="8" fillId="9" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="12" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="14" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -540,7 +603,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:N16"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
@@ -690,8 +753,8 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>22</v>
+      <c r="B5" s="12" t="s">
+        <v>25</v>
       </c>
       <c r="C5" s="1">
         <v>400</v>
@@ -776,6 +839,11 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" s="11" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
   <si>
     <t>Other</t>
   </si>
@@ -103,6 +103,90 @@
   </si>
   <si>
     <t>prodrQpn</t>
+  </si>
+  <si>
+    <t>prodSDhA</t>
+  </si>
+  <si>
+    <t>prodUsnT</t>
+  </si>
+  <si>
+    <t>prodAzqx</t>
+  </si>
+  <si>
+    <t>prodPfKZ</t>
+  </si>
+  <si>
+    <t>prodfLgX</t>
+  </si>
+  <si>
+    <t>prodmKyg</t>
+  </si>
+  <si>
+    <t>proddCRg</t>
+  </si>
+  <si>
+    <t>prodsEGV</t>
+  </si>
+  <si>
+    <t>prodCOgF</t>
+  </si>
+  <si>
+    <t>prodvRlU</t>
+  </si>
+  <si>
+    <t>prodQkuR</t>
+  </si>
+  <si>
+    <t>prodxNlC</t>
+  </si>
+  <si>
+    <t>prodPhvG</t>
+  </si>
+  <si>
+    <t>prodcNzb</t>
+  </si>
+  <si>
+    <t>prodTgOU</t>
+  </si>
+  <si>
+    <t>prodttVo</t>
+  </si>
+  <si>
+    <t>prodDokR</t>
+  </si>
+  <si>
+    <t>prodrqLp</t>
+  </si>
+  <si>
+    <t>prodAFhI</t>
+  </si>
+  <si>
+    <t>prodtKXZ</t>
+  </si>
+  <si>
+    <t>prodlbtr</t>
+  </si>
+  <si>
+    <t>prodqwPb</t>
+  </si>
+  <si>
+    <t>prodrLWW</t>
+  </si>
+  <si>
+    <t>prodwiLe</t>
+  </si>
+  <si>
+    <t>prodFNnF</t>
+  </si>
+  <si>
+    <t>prodpRIf</t>
+  </si>
+  <si>
+    <t>prodoCRU</t>
+  </si>
+  <si>
+    <t>prodAeoJ</t>
   </si>
 </sst>
 </file>
@@ -119,7 +203,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="74">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,8 +290,288 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -305,11 +669,207 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -322,7 +882,35 @@
     <xf applyBorder="true" applyFill="true" borderId="10" fillId="11" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="12" fillId="13" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="14" fillId="15" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="16" fillId="17" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="18" fillId="19" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="20" fillId="21" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="22" fillId="23" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="24" fillId="25" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="26" fillId="27" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="28" fillId="29" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="30" fillId="31" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="32" fillId="33" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="34" fillId="35" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="36" fillId="37" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="38" fillId="39" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="40" fillId="41" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="42" fillId="43" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="44" fillId="45" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="46" fillId="47" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="48" fillId="49" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="50" fillId="51" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="52" fillId="53" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="54" fillId="55" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="56" fillId="57" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="58" fillId="59" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="60" fillId="61" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="62" fillId="63" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="64" fillId="65" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="66" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="68" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="70" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="73" borderId="72" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -753,8 +1341,8 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>25</v>
+      <c r="B5" s="40" t="s">
+        <v>53</v>
       </c>
       <c r="C5" s="1">
         <v>400</v>
@@ -794,6 +1382,9 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B6" s="39" t="s">
+        <v>52</v>
+      </c>
       <c r="C6" s="1">
         <v>400</v>
       </c>
@@ -842,8 +1433,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="11" t="s">
-        <v>24</v>
+      <c r="B17" s="25" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="69">
   <si>
     <t>Other</t>
   </si>
@@ -187,6 +187,51 @@
   </si>
   <si>
     <t>prodAeoJ</t>
+  </si>
+  <si>
+    <t>prodlDlj</t>
+  </si>
+  <si>
+    <t>prodAPbs</t>
+  </si>
+  <si>
+    <t>prodHAeR</t>
+  </si>
+  <si>
+    <t>prodIQJq</t>
+  </si>
+  <si>
+    <t>prodkyav</t>
+  </si>
+  <si>
+    <t>prodCZkP</t>
+  </si>
+  <si>
+    <t>prodRfGU</t>
+  </si>
+  <si>
+    <t>prodkEoZ</t>
+  </si>
+  <si>
+    <t>proddADx</t>
+  </si>
+  <si>
+    <t>prodSgVx</t>
+  </si>
+  <si>
+    <t>prodvrib</t>
+  </si>
+  <si>
+    <t>prodRlvU</t>
+  </si>
+  <si>
+    <t>prodAExO</t>
+  </si>
+  <si>
+    <t>prodCeaQ</t>
+  </si>
+  <si>
+    <t>prodEeXm</t>
   </si>
 </sst>
 </file>
@@ -203,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="74">
+  <fills count="104">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -570,8 +615,158 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="73">
+  <borders count="103">
     <border>
       <left/>
       <right/>
@@ -865,11 +1060,116 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="56">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -910,7 +1210,22 @@
     <xf applyBorder="true" applyFill="true" borderId="66" fillId="67" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="68" fillId="69" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="70" fillId="71" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="73" borderId="72" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="72" fillId="73" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="74" fillId="75" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="76" fillId="77" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="78" fillId="79" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="80" fillId="81" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="82" fillId="83" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="84" fillId="85" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="86" fillId="87" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="88" fillId="89" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="90" fillId="91" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="92" fillId="93" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="94" fillId="95" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="96" fillId="97" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="98" fillId="99" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="100" fillId="101" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="103" borderId="102" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1341,8 +1656,8 @@
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="40" t="s">
-        <v>53</v>
+      <c r="B5" s="55" t="s">
+        <v>68</v>
       </c>
       <c r="C5" s="1">
         <v>400</v>
@@ -1382,8 +1697,8 @@
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="39" t="s">
-        <v>52</v>
+      <c r="B6" s="54" t="s">
+        <v>67</v>
       </c>
       <c r="C6" s="1">
         <v>400</v>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SONY\git\qualitesoft\binaries\FCfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A686177-2ECD-4050-B94B-149D1E47F118}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{1A686177-2ECD-4050-B94B-149D1E47F118}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="449" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView tabRatio="449" windowHeight="11160" windowWidth="20730" xWindow="-120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Input" sheetId="1" r:id="rId1"/>
+    <sheet name="Input" r:id="rId1" sheetId="1"/>
   </sheets>
   <calcPr calcId="124519"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>Other</t>
   </si>
@@ -112,12 +112,61 @@
   </si>
   <si>
     <t>prodSdCR</t>
+  </si>
+  <si>
+    <t>prodLNTU</t>
+  </si>
+  <si>
+    <t>prodfMea</t>
+  </si>
+  <si>
+    <t>prodYezJ</t>
+  </si>
+  <si>
+    <t>prodckVM</t>
+  </si>
+  <si>
+    <t>prodSzPA</t>
+  </si>
+  <si>
+    <t>prodZMGx</t>
+  </si>
+  <si>
+    <t>prodNCFJ</t>
+  </si>
+  <si>
+    <t>prodsaVa</t>
+  </si>
+  <si>
+    <t>prodfckt</t>
+  </si>
+  <si>
+    <t>prodNSrV</t>
+  </si>
+  <si>
+    <t>prodxFLq</t>
+  </si>
+  <si>
+    <t>prodcEQN</t>
+  </si>
+  <si>
+    <t>prodFuEo</t>
+  </si>
+  <si>
+    <t>prodcSbF</t>
+  </si>
+  <si>
+    <t>prodAwJY</t>
+  </si>
+  <si>
+    <t>prodtYHO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -133,7 +182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -175,8 +224,168 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -265,29 +474,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+  <cellXfs count="28">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="2" fillId="3" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="3" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="4" fillId="5" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="5" fillId="6" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="6" fillId="7" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
+    <xf applyBorder="1" applyFill="1" borderId="7" fillId="8" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="9" fillId="10" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="11" fillId="12" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="13" fillId="14" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="15" fillId="16" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="17" fillId="18" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="19" fillId="20" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="21" fillId="22" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="23" fillId="24" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="25" fillId="26" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="27" fillId="28" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="29" fillId="30" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="31" fillId="32" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="33" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="35" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="37" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -304,10 +641,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -471,21 +808,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -502,7 +839,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -554,15 +891,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:M17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
@@ -570,20 +907,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="13.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="33.42578125" style="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="9.140625" style="1" collapsed="1"/>
-    <col min="9" max="9" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="14.140625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.7109375" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="10.42578125" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="10" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="12.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.28515625" style="1" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="16384" width="9.140625" style="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="1" width="11.28515625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="1" width="13.40234375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" style="1" width="33.42578125" collapsed="true"/>
+    <col min="6" max="8" style="1" width="9.140625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="1" width="12.0" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" style="1" width="14.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" style="1" width="11.7109375" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" style="1" width="10.42578125" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" style="1" width="10.0" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="1" width="12.28515625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" style="1" width="19.28515625" collapsed="true"/>
+    <col min="17" max="16384" style="1" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -631,8 +968,8 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>20</v>
+      <c r="B2" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -712,8 +1049,8 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>21</v>
+      <c r="B5" s="13" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -802,8 +1139,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>28</v>
+      <c r="B8" s="27" t="s">
+        <v>44</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>
@@ -835,7 +1172,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>Other</t>
   </si>
@@ -160,6 +160,18 @@
   </si>
   <si>
     <t>prodtYHO</t>
+  </si>
+  <si>
+    <t>produOai</t>
+  </si>
+  <si>
+    <t>prodzqOe</t>
+  </si>
+  <si>
+    <t>prodLxOo</t>
+  </si>
+  <si>
+    <t>prodrHEk</t>
   </si>
 </sst>
 </file>
@@ -182,7 +194,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="41">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -384,8 +396,48 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -586,11 +638,39 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -618,7 +698,11 @@
     <xf applyBorder="true" applyFill="true" borderId="33" fillId="34" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="35" fillId="36" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="37" fillId="38" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="39" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="39" fillId="40" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="41" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="43" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="45" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="48" borderId="47" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -968,8 +1052,8 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="12" t="s">
-        <v>29</v>
+      <c r="B2" s="28" t="s">
+        <v>45</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -1049,8 +1133,8 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="13" t="s">
-        <v>30</v>
+      <c r="B5" s="29" t="s">
+        <v>46</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -1139,8 +1223,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="27" t="s">
-        <v>44</v>
+      <c r="B8" s="31" t="s">
+        <v>48</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
   <si>
     <t>Other</t>
   </si>
@@ -172,6 +172,39 @@
   </si>
   <si>
     <t>prodrHEk</t>
+  </si>
+  <si>
+    <t>prodjazl</t>
+  </si>
+  <si>
+    <t>prodllum</t>
+  </si>
+  <si>
+    <t>produSSw</t>
+  </si>
+  <si>
+    <t>prodqIaD</t>
+  </si>
+  <si>
+    <t>prodNnIJ</t>
+  </si>
+  <si>
+    <t>prodRHkR</t>
+  </si>
+  <si>
+    <t>prodbRlD</t>
+  </si>
+  <si>
+    <t>prodahmi</t>
+  </si>
+  <si>
+    <t>prodIjjL</t>
+  </si>
+  <si>
+    <t>prodAPnm</t>
+  </si>
+  <si>
+    <t>prodROIR</t>
   </si>
 </sst>
 </file>
@@ -194,7 +227,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="71">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -436,8 +469,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="70">
     <border>
       <left/>
       <right/>
@@ -666,11 +809,88 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="43">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -702,7 +922,18 @@
     <xf applyBorder="true" applyFill="true" borderId="41" fillId="42" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="43" fillId="44" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="45" fillId="46" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="48" borderId="47" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="47" fillId="48" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="49" fillId="50" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="51" fillId="52" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="53" fillId="54" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="55" fillId="56" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="57" fillId="58" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="59" fillId="60" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="61" fillId="62" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="63" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="65" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="67" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="70" borderId="69" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1052,8 +1283,8 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="28" t="s">
-        <v>45</v>
+      <c r="B2" s="32" t="s">
+        <v>49</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -1133,8 +1364,8 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="29" t="s">
-        <v>46</v>
+      <c r="B5" s="33" t="s">
+        <v>50</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -1223,8 +1454,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>48</v>
+      <c r="B8" s="42" t="s">
+        <v>59</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
   <si>
     <t>Other</t>
   </si>
@@ -205,6 +205,39 @@
   </si>
   <si>
     <t>prodROIR</t>
+  </si>
+  <si>
+    <t>prodisjY</t>
+  </si>
+  <si>
+    <t>prodZedD</t>
+  </si>
+  <si>
+    <t>prodftLX</t>
+  </si>
+  <si>
+    <t>prodizQO</t>
+  </si>
+  <si>
+    <t>prodELPD</t>
+  </si>
+  <si>
+    <t>prodrZnv</t>
+  </si>
+  <si>
+    <t>prodouoM</t>
+  </si>
+  <si>
+    <t>prodQjSU</t>
+  </si>
+  <si>
+    <t>prodfsBO</t>
+  </si>
+  <si>
+    <t>prodBgWz</t>
+  </si>
+  <si>
+    <t>prodtJAD</t>
   </si>
 </sst>
 </file>
@@ -227,7 +260,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="71">
+  <fills count="93">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -579,8 +612,118 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="70">
+  <borders count="92">
     <border>
       <left/>
       <right/>
@@ -886,11 +1029,88 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -933,7 +1153,18 @@
     <xf applyBorder="true" applyFill="true" borderId="63" fillId="64" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="65" fillId="66" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="67" fillId="68" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="70" borderId="69" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="69" fillId="70" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="71" fillId="72" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="73" fillId="74" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="75" fillId="76" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="77" fillId="78" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="79" fillId="80" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="81" fillId="82" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="83" fillId="84" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="85" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="87" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="89" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="92" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1283,8 +1514,8 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>49</v>
+      <c r="B2" s="43" t="s">
+        <v>60</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -1364,8 +1595,8 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="33" t="s">
-        <v>50</v>
+      <c r="B5" s="44" t="s">
+        <v>61</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -1454,8 +1685,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="42" t="s">
-        <v>59</v>
+      <c r="B8" s="53" t="s">
+        <v>70</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
   <si>
     <t>Other</t>
   </si>
@@ -238,6 +238,96 @@
   </si>
   <si>
     <t>prodtJAD</t>
+  </si>
+  <si>
+    <t>prodGxqI</t>
+  </si>
+  <si>
+    <t>prodAMwl</t>
+  </si>
+  <si>
+    <t>prodlfym</t>
+  </si>
+  <si>
+    <t>prodQwFB</t>
+  </si>
+  <si>
+    <t>prodfZqo</t>
+  </si>
+  <si>
+    <t>prodweQB</t>
+  </si>
+  <si>
+    <t>prodoDdC</t>
+  </si>
+  <si>
+    <t>prodJmsO</t>
+  </si>
+  <si>
+    <t>prodRjCp</t>
+  </si>
+  <si>
+    <t>prodwjhp</t>
+  </si>
+  <si>
+    <t>prodyxbD</t>
+  </si>
+  <si>
+    <t>prodRivY</t>
+  </si>
+  <si>
+    <t>proddBKh</t>
+  </si>
+  <si>
+    <t>prodHFHD</t>
+  </si>
+  <si>
+    <t>prodrkwW</t>
+  </si>
+  <si>
+    <t>prodCiQV</t>
+  </si>
+  <si>
+    <t>prodiLHk</t>
+  </si>
+  <si>
+    <t>prodTHMK</t>
+  </si>
+  <si>
+    <t>prodBIEo</t>
+  </si>
+  <si>
+    <t>prodAKcd</t>
+  </si>
+  <si>
+    <t>prodYLQa</t>
+  </si>
+  <si>
+    <t>prodgXga</t>
+  </si>
+  <si>
+    <t>prodHkdg</t>
+  </si>
+  <si>
+    <t>prodGFTm</t>
+  </si>
+  <si>
+    <t>prodBGWT</t>
+  </si>
+  <si>
+    <t>prodTGXg</t>
+  </si>
+  <si>
+    <t>prodBEok</t>
+  </si>
+  <si>
+    <t>prodWnkL</t>
+  </si>
+  <si>
+    <t>prodnoPw</t>
+  </si>
+  <si>
+    <t>prodmfxh</t>
   </si>
 </sst>
 </file>
@@ -260,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="93">
+  <fills count="153">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -722,8 +812,308 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="92">
+  <borders count="152">
     <border>
       <left/>
       <right/>
@@ -1106,11 +1496,221 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="84">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1164,7 +1764,37 @@
     <xf applyBorder="true" applyFill="true" borderId="85" fillId="86" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="87" fillId="88" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="89" fillId="90" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="92" borderId="91" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="91" fillId="92" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="93" fillId="94" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="95" fillId="96" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="97" fillId="98" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="99" fillId="100" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="101" fillId="102" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="103" fillId="104" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="105" fillId="106" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="107" fillId="108" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="109" fillId="110" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="111" fillId="112" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="113" fillId="114" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="115" fillId="116" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="117" fillId="118" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="119" fillId="120" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="121" fillId="122" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="123" fillId="124" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="125" fillId="126" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="127" fillId="128" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="129" fillId="130" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="131" fillId="132" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="133" fillId="134" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="135" fillId="136" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="137" fillId="138" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="139" fillId="140" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="141" fillId="142" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="143" fillId="144" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="145" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="147" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="149" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="152" borderId="151" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1514,8 +2144,8 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="43" t="s">
-        <v>60</v>
+      <c r="B2" s="80" t="s">
+        <v>97</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -1595,8 +2225,8 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="44" t="s">
-        <v>61</v>
+      <c r="B5" s="81" t="s">
+        <v>98</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -1685,8 +2315,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>70</v>
+      <c r="B8" s="83" t="s">
+        <v>100</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="146">
   <si>
     <t>Other</t>
   </si>
@@ -328,6 +328,141 @@
   </si>
   <si>
     <t>prodmfxh</t>
+  </si>
+  <si>
+    <t>prodpvwr</t>
+  </si>
+  <si>
+    <t>prodLhmD</t>
+  </si>
+  <si>
+    <t>prodLLGa</t>
+  </si>
+  <si>
+    <t>prodgpIb</t>
+  </si>
+  <si>
+    <t>produqts</t>
+  </si>
+  <si>
+    <t>prodKFcP</t>
+  </si>
+  <si>
+    <t>prodmPSE</t>
+  </si>
+  <si>
+    <t>prodlWwR</t>
+  </si>
+  <si>
+    <t>prodtOuR</t>
+  </si>
+  <si>
+    <t>prodEgkE</t>
+  </si>
+  <si>
+    <t>prodcQkQ</t>
+  </si>
+  <si>
+    <t>prodhgMV</t>
+  </si>
+  <si>
+    <t>prodcicl</t>
+  </si>
+  <si>
+    <t>prodWfug</t>
+  </si>
+  <si>
+    <t>prodUDrG</t>
+  </si>
+  <si>
+    <t>prodjEfv</t>
+  </si>
+  <si>
+    <t>proddyFe</t>
+  </si>
+  <si>
+    <t>prodqpgv</t>
+  </si>
+  <si>
+    <t>prodYeEo</t>
+  </si>
+  <si>
+    <t>prodSHJN</t>
+  </si>
+  <si>
+    <t>prodDgUl</t>
+  </si>
+  <si>
+    <t>prodeFeF</t>
+  </si>
+  <si>
+    <t>prodULIG</t>
+  </si>
+  <si>
+    <t>prodQYUu</t>
+  </si>
+  <si>
+    <t>prodfrVs</t>
+  </si>
+  <si>
+    <t>prodQoYk</t>
+  </si>
+  <si>
+    <t>prodFDZY</t>
+  </si>
+  <si>
+    <t>prodHBGt</t>
+  </si>
+  <si>
+    <t>prodvEOU</t>
+  </si>
+  <si>
+    <t>prodRnnt</t>
+  </si>
+  <si>
+    <t>prodepgh</t>
+  </si>
+  <si>
+    <t>prodxEEb</t>
+  </si>
+  <si>
+    <t>prodzXcY</t>
+  </si>
+  <si>
+    <t>produoCM</t>
+  </si>
+  <si>
+    <t>prodcxsf</t>
+  </si>
+  <si>
+    <t>prodnfTi</t>
+  </si>
+  <si>
+    <t>prodtmQR</t>
+  </si>
+  <si>
+    <t>prodtwCz</t>
+  </si>
+  <si>
+    <t>prodEkJN</t>
+  </si>
+  <si>
+    <t>prodqrLp</t>
+  </si>
+  <si>
+    <t>prodEgTe</t>
+  </si>
+  <si>
+    <t>prodRfdd</t>
+  </si>
+  <si>
+    <t>prodpzmH</t>
+  </si>
+  <si>
+    <t>prodAoQv</t>
+  </si>
+  <si>
+    <t>prodreFi</t>
   </si>
 </sst>
 </file>
@@ -350,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="153">
+  <fills count="243">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1112,8 +1247,458 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="152">
+  <borders count="242">
     <border>
       <left/>
       <right/>
@@ -1706,11 +2291,326 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="129">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -1794,7 +2694,52 @@
     <xf applyBorder="true" applyFill="true" borderId="145" fillId="146" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="147" fillId="148" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="149" fillId="150" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="152" borderId="151" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="151" fillId="152" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="153" fillId="154" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="155" fillId="156" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="157" fillId="158" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="159" fillId="160" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="161" fillId="162" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="163" fillId="164" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="165" fillId="166" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="167" fillId="168" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="169" fillId="170" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="171" fillId="172" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="173" fillId="174" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="175" fillId="176" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="177" fillId="178" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="179" fillId="180" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="181" fillId="182" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="183" fillId="184" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="185" fillId="186" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="187" fillId="188" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="189" fillId="190" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="191" fillId="192" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="193" fillId="194" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="195" fillId="196" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="197" fillId="198" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="199" fillId="200" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="201" fillId="202" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="203" fillId="204" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="205" fillId="206" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="207" fillId="208" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="209" fillId="210" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="211" fillId="212" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="213" fillId="214" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="215" fillId="216" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="217" fillId="218" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="219" fillId="220" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="221" fillId="222" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="223" fillId="224" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="225" fillId="226" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="227" fillId="228" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="229" fillId="230" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="231" fillId="232" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="233" fillId="234" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="235" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="237" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="239" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="242" borderId="241" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2144,8 +3089,8 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="80" t="s">
-        <v>97</v>
+      <c r="B2" s="118" t="s">
+        <v>135</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -2225,8 +3170,8 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="81" t="s">
-        <v>98</v>
+      <c r="B5" s="119" t="s">
+        <v>136</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -2315,8 +3260,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="83" t="s">
-        <v>100</v>
+      <c r="B8" s="128" t="s">
+        <v>145</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>

--- a/binaries/FCfiles/ManageProducts.xlsx
+++ b/binaries/FCfiles/ManageProducts.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="151">
   <si>
     <t>Other</t>
   </si>
@@ -463,6 +463,21 @@
   </si>
   <si>
     <t>prodreFi</t>
+  </si>
+  <si>
+    <t>prodIoNo</t>
+  </si>
+  <si>
+    <t>prodWIkw</t>
+  </si>
+  <si>
+    <t>prodrgYh</t>
+  </si>
+  <si>
+    <t>prodefos</t>
+  </si>
+  <si>
+    <t>prodUlvR</t>
   </si>
 </sst>
 </file>
@@ -485,7 +500,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="243">
+  <fills count="253">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1697,8 +1712,58 @@
         <fgColor indexed="9"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="242">
+  <borders count="252">
     <border>
       <left/>
       <right/>
@@ -2606,11 +2671,46 @@
       <top style="thin"/>
       <bottom style="thin"/>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="134">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="1" applyFill="1" borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
@@ -2739,7 +2839,12 @@
     <xf applyBorder="true" applyFill="true" borderId="235" fillId="236" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="237" fillId="238" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyBorder="true" applyFill="true" borderId="239" fillId="240" fontId="0" numFmtId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="242" borderId="241" xfId="0" applyFill="true" applyBorder="true"/>
+    <xf applyBorder="true" applyFill="true" borderId="241" fillId="242" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="243" fillId="244" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="245" fillId="246" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="247" fillId="248" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyBorder="true" applyFill="true" borderId="249" fillId="250" fontId="0" numFmtId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="252" borderId="251" xfId="0" applyFill="true" applyBorder="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -3089,8 +3194,8 @@
       <c r="A2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="118" t="s">
-        <v>135</v>
+      <c r="B2" s="130" t="s">
+        <v>147</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>23</v>
@@ -3170,8 +3275,8 @@
       <c r="A5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="119" t="s">
-        <v>136</v>
+      <c r="B5" s="131" t="s">
+        <v>148</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>23</v>
@@ -3260,8 +3365,8 @@
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="128" t="s">
-        <v>145</v>
+      <c r="B8" s="133" t="s">
+        <v>150</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>22</v>
